--- a/98. Validate Binary Search Tree/Whiteboards/Solution.xlsx
+++ b/98. Validate Binary Search Tree/Whiteboards/Solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 template\Whiteboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\98. Validate Binary Search Tree\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DE802-9519-4608-B352-D1C1ED0E8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28DC93E-786E-437B-A852-1C7412EF7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
@@ -67,7 +67,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,17 +384,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="A1"/>
+  <dimension ref="F8:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="L12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
